--- a/teaching/traditional_assets/database/data/australia/australia_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/australia/australia_banks_regional.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,118 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0368</v>
+        <v>-0.0004200000000000002</v>
       </c>
       <c r="E2">
-        <v>0.0269</v>
+        <v>0.0265</v>
       </c>
       <c r="F2">
-        <v>-0.009399999999999999</v>
+        <v>0.0784</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0003059257643723217</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0003059257643723217</v>
       </c>
       <c r="I2">
-        <v>0.00880377189184799</v>
+        <v>0.0004105895967263509</v>
       </c>
       <c r="J2">
-        <v>0.005870367235077613</v>
+        <v>0.0002901681015305547</v>
       </c>
       <c r="K2">
-        <v>467.33</v>
+        <v>221.891</v>
       </c>
       <c r="L2">
-        <v>0.2610782122905028</v>
+        <v>0.1307941691374544</v>
       </c>
       <c r="M2">
-        <v>348.51</v>
+        <v>262.541</v>
       </c>
       <c r="N2">
-        <v>0.06140171602741416</v>
+        <v>0.03981054655514378</v>
       </c>
       <c r="O2">
-        <v>0.7457471165985492</v>
+        <v>1.183198056703517</v>
       </c>
       <c r="P2">
-        <v>343.8</v>
+        <v>261.732</v>
       </c>
       <c r="Q2">
-        <v>0.06057189168237637</v>
+        <v>0.03968787340251957</v>
       </c>
       <c r="R2">
-        <v>0.7356685853679413</v>
+        <v>1.179552122438494</v>
       </c>
       <c r="S2">
-        <v>4.710000000000008</v>
+        <v>0.8089999999999995</v>
       </c>
       <c r="T2">
-        <v>0.01351467676680729</v>
+        <v>0.003081423472905182</v>
       </c>
       <c r="U2">
-        <v>1695.2</v>
+        <v>1805.634</v>
       </c>
       <c r="V2">
-        <v>0.2986662908085062</v>
+        <v>0.2737982883380138</v>
       </c>
       <c r="W2">
-        <v>0.07219722872053266</v>
+        <v>0.04299001167242614</v>
       </c>
       <c r="X2">
-        <v>0.06403001202985668</v>
+        <v>0.04781560175711454</v>
       </c>
       <c r="Y2">
-        <v>0.00816721669067598</v>
+        <v>-0.0048255900846884</v>
       </c>
       <c r="Z2">
-        <v>0.1138878159496741</v>
+        <v>0.1054620514346613</v>
       </c>
       <c r="AA2">
-        <v>0.0002086304658919258</v>
+        <v>0.004660382005658586</v>
       </c>
       <c r="AB2">
-        <v>0.041570797135217</v>
+        <v>0.03488987168917909</v>
       </c>
       <c r="AC2">
-        <v>-0.04054950912524183</v>
+        <v>-0.03026818503156621</v>
       </c>
       <c r="AD2">
-        <v>12642.8</v>
+        <v>13001.021</v>
       </c>
       <c r="AE2">
-        <v>341.0212415679605</v>
+        <v>2.512194275248565</v>
       </c>
       <c r="AF2">
-        <v>12983.82124156796</v>
+        <v>13003.53319427525</v>
       </c>
       <c r="AG2">
-        <v>11288.62124156796</v>
+        <v>11197.89919427525</v>
       </c>
       <c r="AH2">
-        <v>0.6958207506682421</v>
+        <v>0.6635033502853015</v>
       </c>
       <c r="AI2">
-        <v>0.6623985863714146</v>
+        <v>0.6434754040837564</v>
       </c>
       <c r="AJ2">
-        <v>0.665425276718543</v>
+        <v>0.6293550093893863</v>
       </c>
       <c r="AK2">
-        <v>0.6304371635258632</v>
+        <v>0.6084938682501607</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.033</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>0.026</v>
       </c>
       <c r="AN2">
-        <v>150.5758488858187</v>
+        <v>9962.468199233715</v>
+      </c>
+      <c r="AO2">
+        <v>12.51515151515151</v>
       </c>
       <c r="AP2">
-        <v>134.4475690669457</v>
+        <v>8580.765666111301</v>
+      </c>
+      <c r="AQ2">
+        <v>15.88461538461538</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bendigo and Adelaide Bank Limited (ASX:BEN)</t>
+          <t>Logan Community Financial Services Limited (NSX:LCB)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,49 +728,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0328</v>
+        <v>-0.00326</v>
       </c>
       <c r="E3">
-        <v>0.00241</v>
-      </c>
-      <c r="F3">
-        <v>0.0198</v>
+        <v>0.199</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.2003861003861004</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2003861003861004</v>
       </c>
       <c r="I3">
-        <v>0.01175706620444699</v>
+        <v>0.1594594594594595</v>
       </c>
       <c r="J3">
-        <v>0.008026400235697399</v>
+        <v>0.1156218073743847</v>
       </c>
       <c r="K3">
-        <v>264.2</v>
+        <v>0.211</v>
       </c>
       <c r="L3">
-        <v>0.2444711760895716</v>
+        <v>0.08146718146718147</v>
       </c>
       <c r="M3">
-        <v>202.4</v>
+        <v>0.132</v>
       </c>
       <c r="N3">
-        <v>0.05965046712445846</v>
+        <v>0.09705882352941177</v>
       </c>
       <c r="O3">
-        <v>0.7660862982588948</v>
+        <v>0.6255924170616114</v>
       </c>
       <c r="P3">
-        <v>202.4</v>
+        <v>0.132</v>
       </c>
       <c r="Q3">
-        <v>0.05965046712445846</v>
+        <v>0.09705882352941177</v>
       </c>
       <c r="R3">
-        <v>0.7660862982588948</v>
+        <v>0.6255924170616114</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,67 +776,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>801.1</v>
+        <v>0.534</v>
       </c>
       <c r="V3">
-        <v>0.2360967846512039</v>
+        <v>0.3926470588235294</v>
       </c>
       <c r="W3">
-        <v>0.06355544864084677</v>
+        <v>0.1294478527607362</v>
       </c>
       <c r="X3">
-        <v>0.06403001202985668</v>
+        <v>0.04290340272932726</v>
       </c>
       <c r="Y3">
-        <v>-0.0004745633890099188</v>
+        <v>0.08654445003140894</v>
       </c>
       <c r="Z3">
-        <v>0.1682921596141138</v>
+        <v>2.075320512820513</v>
       </c>
       <c r="AA3">
-        <v>0.001350780229592747</v>
+        <v>0.2399523085734426</v>
       </c>
       <c r="AB3">
-        <v>0.041570797135217</v>
+        <v>0.03376989736777528</v>
       </c>
       <c r="AC3">
-        <v>-0.04022001690562425</v>
+        <v>0.2061824112056674</v>
       </c>
       <c r="AD3">
-        <v>3918</v>
+        <v>0.611</v>
       </c>
       <c r="AE3">
-        <v>223.4706927642707</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>4141.470692764271</v>
+        <v>0.611</v>
       </c>
       <c r="AG3">
-        <v>3340.370692764271</v>
+        <v>0.07699999999999996</v>
       </c>
       <c r="AH3">
-        <v>0.5496624640792712</v>
+        <v>0.3099949264332826</v>
       </c>
       <c r="AI3">
-        <v>0.5119138829132914</v>
+        <v>0.270234409553295</v>
       </c>
       <c r="AJ3">
-        <v>0.4960845372585945</v>
+        <v>0.05358385525400136</v>
       </c>
       <c r="AK3">
-        <v>0.4582711340802603</v>
+        <v>0.04458598726114647</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.033</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>0.026</v>
       </c>
       <c r="AN3">
-        <v>68.25783972125436</v>
+        <v>1.177263969171483</v>
+      </c>
+      <c r="AO3">
+        <v>12.51515151515151</v>
       </c>
       <c r="AP3">
-        <v>58.19461137219984</v>
+        <v>0.1483622350674373</v>
+      </c>
+      <c r="AQ3">
+        <v>15.88461538461538</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +853,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bank of Queensland Limited (ASX:BOQ)</t>
+          <t>BNK Banking Corporation Limited (ASX:BBC)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -853,13 +862,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0368</v>
+        <v>0.6</v>
       </c>
       <c r="E4">
-        <v>0.0269</v>
-      </c>
-      <c r="F4">
-        <v>-0.0386</v>
+        <v>1.07</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -868,91 +874,91 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.004114948684390492</v>
+        <v>0.0117660226120451</v>
       </c>
       <c r="J4">
-        <v>0.002819631959566991</v>
+        <v>0.008977401868233998</v>
       </c>
       <c r="K4">
-        <v>200.6</v>
+        <v>3.68</v>
       </c>
       <c r="L4">
-        <v>0.291527394274088</v>
+        <v>0.1526970954356846</v>
       </c>
       <c r="M4">
-        <v>146.11</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="N4">
-        <v>0.06499555160142349</v>
+        <v>0.001375968992248062</v>
       </c>
       <c r="O4">
-        <v>0.7283649052841477</v>
+        <v>0.01929347826086956</v>
       </c>
       <c r="P4">
-        <v>141.4</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.06290035587188612</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>0.7048853439680958</v>
+        <v>-0</v>
       </c>
       <c r="S4">
-        <v>4.710000000000008</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="T4">
-        <v>0.03223598658544937</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>857.8</v>
+        <v>33.6</v>
       </c>
       <c r="V4">
-        <v>0.3815836298932384</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="W4">
-        <v>0.07219722872053266</v>
+        <v>0.05227272727272727</v>
       </c>
       <c r="X4">
-        <v>0.1099108435151575</v>
+        <v>0.03684836667183787</v>
       </c>
       <c r="Y4">
-        <v>-0.0377136147946248</v>
+        <v>0.0154243606008894</v>
       </c>
       <c r="Z4">
-        <v>0.07399209147989833</v>
+        <v>1.038247384724765</v>
       </c>
       <c r="AA4">
-        <v>0.0002086304658919258</v>
+        <v>0.009320764011317172</v>
       </c>
       <c r="AB4">
-        <v>0.04075813959113375</v>
+        <v>0.03497281592626419</v>
       </c>
       <c r="AC4">
-        <v>-0.04054950912524183</v>
+        <v>-0.02565205191494702</v>
       </c>
       <c r="AD4">
-        <v>8724.799999999999</v>
+        <v>3.21</v>
       </c>
       <c r="AE4">
-        <v>113.8425190513545</v>
+        <v>2.512194275248565</v>
       </c>
       <c r="AF4">
-        <v>8838.642519051355</v>
+        <v>5.722194275248565</v>
       </c>
       <c r="AG4">
-        <v>7980.842519051354</v>
+        <v>-27.87780572475144</v>
       </c>
       <c r="AH4">
-        <v>0.7972334729710079</v>
+        <v>0.09982510871394502</v>
       </c>
       <c r="AI4">
-        <v>0.7728151561772895</v>
+        <v>0.06842913325634034</v>
       </c>
       <c r="AJ4">
-        <v>0.7802292883272891</v>
+        <v>-1.175178206589379</v>
       </c>
       <c r="AK4">
-        <v>0.754394082949457</v>
+        <v>-0.5573087332265555</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -961,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>340.8124999999999</v>
+        <v>4.083969465648854</v>
       </c>
       <c r="AP4">
-        <v>311.7516609004435</v>
+        <v>-35.46794621469648</v>
       </c>
     </row>
     <row r="5">
@@ -975,7 +981,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BNK Banking Corporation Limited (ASX:BBC)</t>
+          <t>Bendigo and Adelaide Bank Limited (ASX:BEN)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -984,10 +990,13 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.59</v>
+        <v>0.00242</v>
       </c>
       <c r="E5">
-        <v>0.802</v>
+        <v>-0.146</v>
+      </c>
+      <c r="F5">
+        <v>0.076</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -996,88 +1005,91 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01044311554400693</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.006605270581584382</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>2.53</v>
+        <v>133.1</v>
       </c>
       <c r="L5">
-        <v>0.1193396226415094</v>
+        <v>0.1348257698541329</v>
       </c>
       <c r="M5">
-        <v>-0</v>
+        <v>191.5</v>
       </c>
       <c r="N5">
-        <v>-0</v>
+        <v>0.05005489048042239</v>
       </c>
       <c r="O5">
-        <v>-0</v>
+        <v>1.438767843726521</v>
       </c>
       <c r="P5">
-        <v>-0</v>
+        <v>191.5</v>
       </c>
       <c r="Q5">
-        <v>-0</v>
+        <v>0.05005489048042239</v>
       </c>
       <c r="R5">
-        <v>-0</v>
+        <v>1.438767843726521</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
       <c r="U5">
-        <v>36.3</v>
+        <v>846.9</v>
       </c>
       <c r="V5">
-        <v>1.043103448275862</v>
+        <v>0.2213654660463171</v>
       </c>
       <c r="W5">
-        <v>0.139010989010989</v>
+        <v>0.03370729607212501</v>
       </c>
       <c r="X5">
-        <v>0.04517821859653357</v>
+        <v>0.05272780078490182</v>
       </c>
       <c r="Y5">
-        <v>0.09383277041445545</v>
+        <v>-0.01902050471277681</v>
       </c>
       <c r="Z5">
-        <v>-5.310660822785893</v>
+        <v>0.1630199646613934</v>
       </c>
       <c r="AA5">
-        <v>-0.03507835170152036</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.04313314002593309</v>
+        <v>0.0348843181481854</v>
       </c>
       <c r="AC5">
-        <v>-0.07821149172745345</v>
+        <v>-0.0348843181481854</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>3819.2</v>
       </c>
       <c r="AE5">
-        <v>3.708029752335265</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>3.708029752335265</v>
+        <v>3819.2</v>
       </c>
       <c r="AG5">
-        <v>-32.59197024766473</v>
+        <v>2972.3</v>
       </c>
       <c r="AH5">
-        <v>0.09629237788023672</v>
+        <v>0.499568345323741</v>
       </c>
       <c r="AI5">
-        <v>0.05003546531634002</v>
+        <v>0.4882389036612804</v>
       </c>
       <c r="AJ5">
-        <v>-14.76065719367898</v>
+        <v>0.4372251070151953</v>
       </c>
       <c r="AK5">
-        <v>-0.8620383146427153</v>
+        <v>0.4261056555085657</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1085,11 +1097,130 @@
       <c r="AM5">
         <v>0</v>
       </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>-33.84420586465704</v>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bank of Queensland Limited (ASX:BOQ)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Banks (Regional)</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>-0.0182</v>
+      </c>
+      <c r="E6">
+        <v>-0.184</v>
+      </c>
+      <c r="F6">
+        <v>0.0808</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="L6">
+        <v>0.1243773806035746</v>
+      </c>
+      <c r="M6">
+        <v>70.83799999999999</v>
+      </c>
+      <c r="N6">
+        <v>0.02608173784977908</v>
+      </c>
+      <c r="O6">
+        <v>0.8343698468786807</v>
+      </c>
+      <c r="P6">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="Q6">
+        <v>0.0258100147275405</v>
+      </c>
+      <c r="R6">
+        <v>0.8256772673733803</v>
+      </c>
+      <c r="S6">
+        <v>0.7379999999999995</v>
+      </c>
+      <c r="T6">
+        <v>0.01041813715802252</v>
+      </c>
+      <c r="U6">
+        <v>924.6</v>
+      </c>
+      <c r="V6">
+        <v>0.3404270986745214</v>
+      </c>
+      <c r="W6">
+        <v>0.03267521071469807</v>
+      </c>
+      <c r="X6">
+        <v>0.09533446527528537</v>
+      </c>
+      <c r="Y6">
+        <v>-0.0626592545605873</v>
+      </c>
+      <c r="Z6">
+        <v>0.06821838678406174</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0.03489542523017278</v>
+      </c>
+      <c r="AC6">
+        <v>-0.03489542523017278</v>
+      </c>
+      <c r="AD6">
+        <v>9178</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>9178</v>
+      </c>
+      <c r="AG6">
+        <v>8253.4</v>
+      </c>
+      <c r="AH6">
+        <v>0.771649571212376</v>
+      </c>
+      <c r="AI6">
+        <v>0.7461788617886179</v>
+      </c>
+      <c r="AJ6">
+        <v>0.7524021368534286</v>
+      </c>
+      <c r="AK6">
+        <v>0.7255481125938429</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
